--- a/TestCases/Back End/DeleteKPI-BackEnd-ServiceManager.xlsx
+++ b/TestCases/Back End/DeleteKPI-BackEnd-ServiceManager.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D03174FE-2512-433E-B64E-0707DCCFFDCB}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{64700973-AB8D-4361-960D-7BC7DD79696C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{D03174FE-2512-433E-B64E-0707DCCFFDCB}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{6F12EEF0-0006-4279-8E59-152DF4EB7DE7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Role: Service Manager</t>
   </si>
@@ -41,19 +41,31 @@
     <t>I am returned to the login page</t>
   </si>
   <si>
-    <t>Step 2: Log in and go to the KPI page and delete one that belongs to someone on any of my teams</t>
+    <t>Step 2: Log in as a user with the appropriate role</t>
+  </si>
+  <si>
+    <t>I am redirected to the user's dashboard</t>
+  </si>
+  <si>
+    <t>Step 3: Go to the "Team KPI" page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A list of KPIs is displayed </t>
+  </si>
+  <si>
+    <t>Step 4: Delete one that belongs to someone on any of my teams</t>
   </si>
   <si>
     <t>The data is removed from the database.</t>
   </si>
   <si>
-    <t>Step 3: While logged in try to delete a kpi about me</t>
+    <t>Step 5: While logged in try to delete a kpi about me</t>
   </si>
   <si>
     <t>I am denied access to this</t>
   </si>
   <si>
-    <t>Step 4: Try to delete a kpi of someone who is not under any of my teams</t>
+    <t>Step 6: Try to delete a kpi of someone who is not under any of my teams</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,11 +479,24 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
   </sheetData>
